--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_6.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999957198601503</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990971847188451</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999495652753</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999983705884055</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999990766966401</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G2" t="n">
-        <v>3.995322673266765e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008427384359473316</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I2" t="n">
-        <v>2.960470355619347e-08</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.39429947107514e-06</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>7.117256176009979e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001057368184165865</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00199883032628254</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000004108934256</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002083924671421577</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P2" t="n">
-        <v>122.8607724254588</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q2" t="n">
-        <v>182.5856878440006</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_1</t>
+          <t>model_32_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999964790161014</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990930928521276</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999999816127271</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999987934972739</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999992603300005</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G3" t="n">
-        <v>3.286683916019241e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008465580139160218</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I3" t="n">
-        <v>1.079315424963322e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.032413245689121e-06</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>5.701723940927266e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>9.903314926292424e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001812921376127283</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000003380144543</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00189010119237363</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P3" t="n">
-        <v>123.2512628594998</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.9761782780416</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_2</t>
+          <t>model_32_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999970968113088</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990891023324545</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999996139821656</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999991193215368</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999364211162</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G4" t="n">
-        <v>2.709999207961163e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008502829888672416</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I4" t="n">
-        <v>2.265887960949961e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>7.536030303854453e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K4" t="n">
-        <v>4.900959132402206e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>9.302027021004935e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00164620752275075</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000002787061144</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001716289985113607</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P4" t="n">
-        <v>123.6371244306759</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q4" t="n">
-        <v>183.3620398492178</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_3</t>
+          <t>model_32_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999975965026152</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990852502460589</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999993587402268</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999993642595546</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999994029902383</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G5" t="n">
-        <v>2.243559307318624e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008538787424304883</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I5" t="n">
-        <v>3.764133856661275e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>5.440077693184232e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K5" t="n">
-        <v>4.602031789245986e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>8.790208489752734e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001497851563846907</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000002307357489</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001561618205900054</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P5" t="n">
-        <v>124.0148939534064</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.7398093719482</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_4</t>
+          <t>model_32_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999979962218725</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990815711641913</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999990619399741</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999995395395971</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999993872638349</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G6" t="n">
-        <v>1.870438926335543e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008573130038608567</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I6" t="n">
-        <v>5.506323101494428e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.940193493112303e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>4.723258297303366e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>8.336449690506731e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001367639911064145</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001923627002</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00142586317348305</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3786748693493</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1035902878912</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_5</t>
+          <t>model_32_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999983152106593</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990780820949746</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999987383841581</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999996618695737</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999993321058159</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G7" t="n">
-        <v>1.572676895857107e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008605698968221407</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I7" t="n">
-        <v>7.40556495750024e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>2.893406897144811e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>5.148442226812967e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>7.93118472491332e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001254064151412163</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001617397767</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001307452258608449</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P7" t="n">
-        <v>124.7254627226157</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.4503781411576</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_6</t>
+          <t>model_32_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999985671354488</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990748143045696</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999983992875037</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999997391625733</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999992456045068</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G8" t="n">
-        <v>1.337516163123375e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008636202357258226</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I8" t="n">
-        <v>9.39603005635235e-07</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>2.232005020768577e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K8" t="n">
-        <v>5.815234966067234e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>7.562868510996105e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00115651033852853</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001375549969</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001205745377946128</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P8" t="n">
-        <v>125.0493925473421</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q8" t="n">
-        <v>184.7743079658839</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_7</t>
+          <t>model_32_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999987652965613</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990716987712638</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999980523477712</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999999784363597</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999991387558129</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152541462793708e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000866528449310722</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I9" t="n">
-        <v>1.143253327668231e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.845216540674657e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K9" t="n">
-        <v>6.638874908678485e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>7.212701809364324e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001073564838653776</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001185315301</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00111926871642085</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P9" t="n">
-        <v>125.3470821726581</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.0719975912</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_8</t>
+          <t>model_32_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999989186171864</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990688175760736</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999977073004553</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999998024762414</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999990174344803</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G10" t="n">
-        <v>1.00942338930001e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008692179185509621</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I10" t="n">
-        <v>1.345792819194005e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.690225312219103e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K10" t="n">
-        <v>7.574076752079576e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>7.027376240074735e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001004700646610725</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000001038127501</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001047472833153998</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P10" t="n">
-        <v>125.6122625836414</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q10" t="n">
-        <v>185.3371780021832</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_9</t>
+          <t>model_32_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999990354254833</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990661957137784</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999997367411576</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999997978550501</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999998885458921</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G11" t="n">
-        <v>9.003879714307903e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008716653119169783</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I11" t="n">
-        <v>1.545304357539499e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.729769185791376e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>8.591406380593182e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>6.866076766112816e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0009488877549166658</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000925991536</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009892838711119086</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P11" t="n">
-        <v>125.8408801742851</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q11" t="n">
-        <v>185.565795592827</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_10</t>
+          <t>model_32_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999991239632414</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990637510113775</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999970368120537</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999997794936949</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999987493715603</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G12" t="n">
-        <v>8.177418605618352e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008739473342982754</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I12" t="n">
-        <v>1.739363131725201e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>1.886888651382574e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>9.640431706781525e-07</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>6.710177422405815e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0009042908053064762</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000840995288</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0009427883370284007</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P12" t="n">
-        <v>126.0334382480657</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.7583536666075</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_11</t>
+          <t>model_32_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999991898647137</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990614976986265</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999967241643315</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999997504504377</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999986141744232</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G13" t="n">
-        <v>7.562257289298368e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008760507028423015</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I13" t="n">
-        <v>1.922884369973383e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>2.135413937129029e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K13" t="n">
-        <v>1.068259477190217e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>6.563488174628345e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0008696124015501601</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000777729875</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009066336018299861</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P13" t="n">
-        <v>126.1898518441869</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.9147672627287</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999992367843096</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990594514480178</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999964227753462</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999997108839415</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999984775217412</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G14" t="n">
-        <v>7.12428345708303e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008779607879655441</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I14" t="n">
-        <v>2.099796836835309e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>2.473987351712908e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>1.1735977860033e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>6.507052716908769e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0008440547054002502</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000732687063</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0008799878616432501</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P14" t="n">
-        <v>126.3091729945756</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.0340884131174</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_13</t>
+          <t>model_32_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999992693179198</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990575691827346</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999961388958339</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999996668084807</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999983445034563</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G15" t="n">
-        <v>6.820596486166693e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008797177999854177</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I15" t="n">
-        <v>2.266431409595355e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.851144306260974e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K15" t="n">
-        <v>1.27613453082181e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>6.483284347833228e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0008258690263090566</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000701454797</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.000861027980543599</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P15" t="n">
-        <v>126.3962974432254</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.1212128617672</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_14</t>
+          <t>model_32_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999992906418259</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990558616406069</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999995872254406</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999996194853591</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999982172753598</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G16" t="n">
-        <v>6.621547182774787e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000881311715609275</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I16" t="n">
-        <v>2.422947390854771e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.256091734706174e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K16" t="n">
-        <v>1.374207926266537e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>6.460479142844205e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0008137288972855018</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000680983847</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0008483710210939799</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P16" t="n">
-        <v>126.4555331898121</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q16" t="n">
-        <v>186.1804486083539</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_15</t>
+          <t>model_32_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999993032589536</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990543000632574</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999956239758254</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999995714617584</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999980958989754</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G17" t="n">
-        <v>6.503771833848647e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008827693795196833</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I17" t="n">
-        <v>2.568684555474564e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>3.667033213678581e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>1.467770547093443e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>6.434707178175525e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0008064596601100794</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000668871404</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0008407923174426044</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P17" t="n">
-        <v>126.4914267204495</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.2163421389913</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_16</t>
+          <t>model_32_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999993095124812</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990528717202017</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999953942631337</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999995221117157</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999979818723373</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G18" t="n">
-        <v>6.445397898936954e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008841026750651165</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I18" t="n">
-        <v>2.703523719965317e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>4.089325154246716e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>1.555667637984338e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>6.409061775518838e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0008028323547875331</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000662868018</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0008370105902229201</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P18" t="n">
-        <v>126.5094585577131</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.234373976255</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_17</t>
+          <t>model_32_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999993107083215</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990515820130588</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999951848224916</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999994738883816</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999978746359555</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G19" t="n">
-        <v>6.434235254441795e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008853065600714211</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I19" t="n">
-        <v>2.826463384168922e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>4.501975766479103e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>1.638330480408416e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>6.386727282358868e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0008021368495737991</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000661720011</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0008362854759123432</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P19" t="n">
-        <v>126.5129253171021</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q19" t="n">
-        <v>186.2378407356439</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_18</t>
+          <t>model_32_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999993082583958</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990504082001223</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999949903178914</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999994270254262</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999977743153581</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G20" t="n">
-        <v>6.457104236234204e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008864022629232856</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I20" t="n">
-        <v>2.940635733876501e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>4.902985518726756e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>1.715662311066041e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>6.363958148506701e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0008035610889182106</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00000066407194</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0008377703480742282</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P20" t="n">
-        <v>126.505829388615</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.2307448071568</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_19</t>
+          <t>model_32_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999993032961467</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990493463806004</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999948113236948</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999993819919563</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999976814220689</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G21" t="n">
-        <v>6.50342465257078e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008873934248384886</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I21" t="n">
-        <v>3.045703624293084e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>5.288340229102104e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K21" t="n">
-        <v>1.787268823601647e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>6.340873251921336e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008064381347983725</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000668835699</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0008407698757538146</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P21" t="n">
-        <v>126.4915334863551</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.2164489048969</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_20</t>
+          <t>model_32_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999992965290225</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990483839477132</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999946502110184</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999993379886575</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999975956556616</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G22" t="n">
-        <v>6.566592787110981e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008882918136926506</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I22" t="n">
-        <v>3.14027523243696e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>5.664879689145718e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>1.853381600675766e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>6.320955230730181e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0008103451602317978</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000675332138</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0008448432313485984</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P22" t="n">
-        <v>126.4722011092791</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q22" t="n">
-        <v>186.1971165278209</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_21</t>
+          <t>model_32_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999992880958681</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990475204969905</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999994499063837</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999992970978586</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999975152778247</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G23" t="n">
-        <v>6.645312581532018e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000889097807041218</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I23" t="n">
-        <v>3.228997189905308e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>6.014785258719703e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K23" t="n">
-        <v>1.915340614533548e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>6.302666519796262e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0008151878667848301</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000683427967</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0008498921019453778</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P23" t="n">
-        <v>126.4483678395786</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.1732832581204</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_22</t>
+          <t>model_32_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999992792269912</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990467372139438</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999943639979118</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999992574062934</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999974419550609</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G24" t="n">
-        <v>6.728099654706729e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008898289673832664</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I24" t="n">
-        <v>3.308279602915456e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>6.354428898916396e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K24" t="n">
-        <v>1.971861246403548e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>6.287235164960754e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0008202499408538064</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000691942089</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0008551696789874083</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P24" t="n">
-        <v>126.4236058329223</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.1485212514642</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_6_23</t>
+          <t>model_32_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999992696933016</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990460293806641</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999942391593731</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999992205322161</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999973739568367</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G25" t="n">
-        <v>6.817092462068514e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008904896986794532</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I25" t="n">
-        <v>3.381558637317109e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>6.66996308605904e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K25" t="n">
-        <v>2.024277472961506e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>6.272055818989729e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0008256568574213209</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000701094431</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0008608067791870623</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P25" t="n">
-        <v>126.3973251904305</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q25" t="n">
-        <v>186.1222406089724</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99999926048457</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990453857351691</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999941280294116</v>
+        <v>0.9999976561244449</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999991872552542</v>
+        <v>0.9999999738209685</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999973131746245</v>
+        <v>0.9999992291165175</v>
       </c>
       <c r="G26" t="n">
-        <v>6.903051929701837e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008910905134962791</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I26" t="n">
-        <v>3.446790867428045e-06</v>
+        <v>1.292685094922034e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>6.954716493928605e-07</v>
+        <v>9.113317272946016e-09</v>
       </c>
       <c r="K26" t="n">
-        <v>2.071131258410453e-06</v>
+        <v>6.508992355609909e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>6.256678329472472e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000830846070563124</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000709934813</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.000866216907875464</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P26" t="n">
-        <v>126.3722640569846</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.0971794755264</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
   </sheetData>
